--- a/数据整理/stocks/港股/02777-富力地产.xlsx
+++ b/数据整理/stocks/港股/02777-富力地产.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.78</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.12</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.78</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.12</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.48</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.57</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.48</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.57</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -660,15 +720,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.25</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.53</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02777-富力地产.xlsx
+++ b/数据整理/stocks/港股/02777-富力地产.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02777-富力地产.xlsx
+++ b/数据整理/stocks/港股/02777-富力地产.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02777-富力地产.xlsx
+++ b/数据整理/stocks/港股/02777-富力地产.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02777-富力地产.xlsx
+++ b/数据整理/stocks/港股/02777-富力地产.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1</v>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1067,14 +1110,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1083,14 +1148,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.12</v>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1099,13 +1186,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02777-富力地产.xlsx
+++ b/数据整理/stocks/港股/02777-富力地产.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1229,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,17 +1241,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1260,14 +1281,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1276,14 +1319,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -1292,14 +1425,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -1308,14 +1441,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -1324,13 +1457,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02777-富力地产.xlsx
+++ b/数据整理/stocks/港股/02777-富力地产.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1362,7 +1363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,17 +1374,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1393,14 +1414,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.28</v>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1409,14 +1452,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -1425,14 +1558,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -1441,14 +1574,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -1457,14 +1590,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
@@ -1473,13 +1606,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02777-富力地产.xlsx
+++ b/数据整理/stocks/港股/02777-富力地产.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,133 +457,621 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501305</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0645</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501306</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0302</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+      <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -640,32 +1128,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>94.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0786</t>
+          <t>0.0685</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -678,32 +1166,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>94.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0270</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -726,22 +1214,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>93.29</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0116</t>
+          <t>0.0125</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -753,7 +1241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -847,7 +1335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -904,32 +1392,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>92.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0685</t>
+          <t>0.0786</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -942,32 +1430,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>92.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0220</t>
+          <t>0.0270</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -990,498 +1478,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.0116</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501305</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0270</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501306</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501307</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.53</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501308</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005051</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1713</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005052</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1112</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005052</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0744</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005051</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0493</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1495,144 +1511,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.09</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/02777-富力地产.xlsx
+++ b/数据整理/stocks/港股/02777-富力地产.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.28</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.20</t>
+          <t>92.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0744</t>
+          <t>0.0371</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>513530</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.20</t>
+          <t>95.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0493</t>
+          <t>0.0347</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -788,36 +843,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>90.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1713</t>
+          <t>0.0744</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -826,36 +881,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>90.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1112</t>
+          <t>0.0493</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -864,6 +919,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1071,7 +1258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1241,7 +1428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1335,7 +1522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1505,7 +1692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
